--- a/Assets/Data/AchievementData.xlsx
+++ b/Assets/Data/AchievementData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\Don-t-Die\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DC59B1-CB53-400F-A557-FDE78E7E011D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1133409-49F2-4AF4-ADE4-71AD07D0CCF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16500" yWindow="3090" windowWidth="17715" windowHeight="17145" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
+    <workbookView xWindow="39030" yWindow="2685" windowWidth="16200" windowHeight="20475" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,65 +62,23 @@
     <t>005</t>
   </si>
   <si>
-    <t>006</t>
-  </si>
-  <si>
-    <t>007</t>
-  </si>
-  <si>
-    <t>008</t>
-  </si>
-  <si>
-    <t>009</t>
-  </si>
-  <si>
-    <t>010</t>
-  </si>
-  <si>
-    <t>011</t>
-  </si>
-  <si>
-    <t>A로 인한 사망</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B로 인한 사망</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C로 인한 사망</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D로 인한 사망</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E로 인한 사망</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F로 인한 사망</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G로 인한 사망</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H로 인한 사망</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I로 인한 사망</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>J로 인한 사망</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K로 인한 사망</t>
+    <t>곰한테 찢겨 사망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박쥐에게 코로나 옮아서 사망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스켈레톤에게 맞아 사망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>굶주림으로 인한 사망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈수로 인한 사망</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1135160-30B0-4580-B52D-3A80F718DA59}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -515,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -523,7 +481,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -531,7 +489,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -539,7 +497,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -547,55 +505,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/AchievementData.xlsx
+++ b/Assets/Data/AchievementData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\Don-t-Die\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Heewon\Documents\Unity Projects\Don-t-Die\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1133409-49F2-4AF4-ADE4-71AD07D0CCF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFF2009-EDAB-4BB1-8F00-F06650FEDDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39030" yWindow="2685" windowWidth="16200" windowHeight="20475" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
+    <workbookView xWindow="12660" yWindow="3990" windowWidth="22680" windowHeight="15975" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,14 @@
   </si>
   <si>
     <t>탈수로 인한 사망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기생충 감염으로 인한 사망</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -150,9 +158,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -190,7 +198,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -296,7 +304,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -438,7 +446,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -446,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1135160-30B0-4580-B52D-3A80F718DA59}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -508,6 +516,14 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F38">
     <sortCondition ref="C38"/>

--- a/Assets/Data/AchievementData.xlsx
+++ b/Assets/Data/AchievementData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Heewon\Documents\Unity Projects\Don-t-Die\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\Don-t-Die\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFF2009-EDAB-4BB1-8F00-F06650FEDDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C17FC6-1AF7-4816-A9D0-11B95EDD7B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12660" yWindow="3990" windowWidth="22680" windowHeight="15975" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
+    <workbookView xWindow="30030" yWindow="2190" windowWidth="19755" windowHeight="20475" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,19 +74,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>굶주림으로 인한 사망</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탈수로 인한 사망</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>006</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기생충 감염으로 인한 사망</t>
+    <t>007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑사병에 걸려 사망! (쥐를 조심하세요~)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기생충 감염으로 인한 사망! (고기는 구워먹읍시다^^!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>굶주림으로 인한 사망! (굶지마!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈수로 인한 사망!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -158,9 +166,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -198,7 +206,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -304,7 +312,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -446,7 +454,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -454,16 +462,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1135160-30B0-4580-B52D-3A80F718DA59}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="51" style="1" customWidth="1"/>
     <col min="3" max="6" width="9" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -505,7 +513,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -513,15 +521,23 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/AchievementData.xlsx
+++ b/Assets/Data/AchievementData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\Don-t-Die\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C17FC6-1AF7-4816-A9D0-11B95EDD7B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC23014-74EE-4921-A63C-408852C16C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30030" yWindow="2190" windowWidth="19755" windowHeight="20475" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
@@ -465,7 +465,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Data/AchievementData.xlsx
+++ b/Assets/Data/AchievementData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOME\Desktop\Don-t-Die\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Heewon\Documents\Unity Projects\Don-t-Die\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC23014-74EE-4921-A63C-408852C16C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E96A0A9-E7F7-4EFC-A36C-D248E7BDE8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30030" yWindow="2190" windowWidth="19755" windowHeight="20475" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
+    <workbookView xWindow="15240" yWindow="4860" windowWidth="22680" windowHeight="15975" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,14 @@
   </si>
   <si>
     <t>탈수로 인한 사망!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독버섯으로 인한 사망 (버섯은 구워먹읍시다^^!)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,9 +174,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -206,7 +214,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -312,7 +320,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -454,7 +462,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -462,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1135160-30B0-4580-B52D-3A80F718DA59}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -540,6 +548,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F38">
     <sortCondition ref="C38"/>

--- a/Assets/Data/AchievementData.xlsx
+++ b/Assets/Data/AchievementData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Heewon\Documents\Unity Projects\Don-t-Die\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E96A0A9-E7F7-4EFC-A36C-D248E7BDE8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09435B14-F40B-4E0B-AA86-DB488E2E96FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15240" yWindow="4860" windowWidth="22680" windowHeight="15975" xr2:uid="{C5BA0343-3613-49B4-8368-88907C6946D2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,14 @@
   </si>
   <si>
     <t>독버섯으로 인한 사망 (버섯은 구워먹읍시다^^!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어둠 속 의문의 존재로부터 공격받아 사망!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1135160-30B0-4580-B52D-3A80F718DA59}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -556,6 +564,14 @@
         <v>17</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F38">
     <sortCondition ref="C38"/>
